--- a/data/trans_camb/P17_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P17_R-Dificultad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>2.936212957025774</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-0.06515559418592831</v>
+        <v>-0.06515559418593941</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.1777126118468808</v>
@@ -664,7 +664,7 @@
         <v>6.230649923868958</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>1.628715158367722</v>
+        <v>1.628715158367711</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.1484339013732122</v>
+        <v>-0.189420095109226</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>8.155576335522268</v>
+        <v>7.618187969024046</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.4897959848052272</v>
+        <v>-0.3576658710029534</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.300477401501034</v>
+        <v>-4.367937487293376</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.06549022214878332</v>
+        <v>-0.3107176260913395</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-3.764418710850997</v>
+        <v>-4.11699678723991</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.715070854133164</v>
+        <v>-2.937073687293327</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.742575414439998</v>
+        <v>3.620355033938576</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.263012647587854</v>
+        <v>-1.961133686634934</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.564292718742067</v>
+        <v>9.510021810819277</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.57847849756537</v>
+        <v>17.38265527499793</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.33596531334727</v>
+        <v>12.30799800725251</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.028412535277929</v>
+        <v>3.025019500956617</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.467444722479386</v>
+        <v>6.550196294261664</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.090225479533119</v>
+        <v>3.868131570433424</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.959410999773502</v>
+        <v>3.108571840435813</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>9.138041248165329</v>
+        <v>8.97142800212707</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.914587436342923</v>
+        <v>5.091526323537733</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.03589029144498066</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.0007964181409282322</v>
+        <v>-0.000796418140928368</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.002359368388581347</v>
@@ -769,7 +769,7 @@
         <v>0.08272006312843584</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.02162333341860403</v>
+        <v>0.02162333341860389</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.002823325256831777</v>
+        <v>-0.00292727451124433</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1236720817133654</v>
+        <v>0.1136731274079613</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.007066932921525207</v>
+        <v>-0.005820028817313256</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.05186812493709016</v>
+        <v>-0.05230277084672393</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.000923517939632685</v>
+        <v>-0.002910364920124509</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.0452021389352644</v>
+        <v>-0.04938712293915858</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.03544618703807605</v>
+        <v>-0.03814407957849975</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.04882881762535841</v>
+        <v>0.04718065490818199</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.02943801554152726</v>
+        <v>-0.02537485493604958</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1534320494703161</v>
+        <v>0.1536023915038755</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2871928767114038</v>
+        <v>0.2826581543291857</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1981017885429567</v>
+        <v>0.196721651367997</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.03779492265493749</v>
+        <v>0.03755740068804329</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.08047882362887127</v>
+        <v>0.08244474000770716</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05118061172973003</v>
+        <v>0.0478836242325199</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04021797638583391</v>
+        <v>0.04221561795257387</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1247477995000162</v>
+        <v>0.1220749221829428</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.06668763337401869</v>
+        <v>0.06884174670118945</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.966213298391097</v>
+        <v>2.884823440433066</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.90048729824621</v>
+        <v>3.783472145365776</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.7879995041647162</v>
+        <v>-0.7291982344134832</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.012331066497582</v>
+        <v>3.61213800586128</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6054374205682556</v>
+        <v>0.5441003186315257</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.704604738424822</v>
+        <v>2.543804014197881</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>4.712517336752063</v>
+        <v>4.600316865658914</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>3.771340251971429</v>
+        <v>3.418019659756058</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.599123571327936</v>
+        <v>2.642862363461715</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.44826367466248</v>
+        <v>11.64449332427002</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>12.14384746232593</v>
+        <v>12.21153255439907</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.795399621956154</v>
+        <v>8.523539785548333</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.71024991137042</v>
+        <v>10.88131016005915</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>8.024455116827177</v>
+        <v>8.057601508658287</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>9.734426239766906</v>
+        <v>9.82323243375186</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>10.36763331618881</v>
+        <v>10.29783535433784</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>9.222022837537432</v>
+        <v>9.094010835463498</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>8.739108115567385</v>
+        <v>8.945756676366333</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.04449638004725259</v>
+        <v>0.04285000594564495</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.05863795455775992</v>
+        <v>0.05661283759404174</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.01219755176033987</v>
+        <v>-0.01082025361154393</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.05206604353283856</v>
+        <v>0.04616672833914444</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.008292882262948612</v>
+        <v>0.007032257709553262</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03532637387533532</v>
+        <v>0.0326779088223668</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06613967027928326</v>
+        <v>0.06367032165158552</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.05334356645090333</v>
+        <v>0.04781370648208506</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.03654607016484955</v>
+        <v>0.03722759209488324</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1827373785172796</v>
+        <v>0.1857937491527934</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1946058392862813</v>
+        <v>0.194799215415451</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1396005039266671</v>
+        <v>0.1363776483945435</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1461927111846164</v>
+        <v>0.1498313111913613</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1102020942864371</v>
+        <v>0.1107516775428577</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1332238957898227</v>
+        <v>0.1351128786125603</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1531701327772391</v>
+        <v>0.1507618701422708</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1352140360222626</v>
+        <v>0.1330548995724559</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.1264014579231162</v>
+        <v>0.1309825269222732</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>12.43285802434428</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9.564478413786205</v>
+        <v>9.564478413786182</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>10.32304853380955</v>
@@ -1092,7 +1092,7 @@
         <v>9.712857481085081</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>6.137778712490638</v>
+        <v>6.137778712490649</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>6.111185576077789</v>
+        <v>5.622215105131329</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.256104482980218</v>
+        <v>7.778369831657687</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.423025528085548</v>
+        <v>5.133908530633008</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6.67205521147282</v>
+        <v>6.217907805406873</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>2.638124849449282</v>
+        <v>2.419020537551667</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.643125861600897</v>
+        <v>-1.676609486045761</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>7.866443057386993</v>
+        <v>7.893520208851116</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>6.776978619490567</v>
+        <v>6.938766976409629</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.217859025723334</v>
+        <v>3.399773735460586</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>14.37247966736506</v>
+        <v>14.29013867257109</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.65128749806636</v>
+        <v>16.39887319066886</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.71273350955074</v>
+        <v>13.68431286808695</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13.79295377751484</v>
+        <v>13.81493455516699</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>10.38972544972816</v>
+        <v>10.12217899298959</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.760338789414208</v>
+        <v>5.413805419558056</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>13.54210083006443</v>
+        <v>13.63621125059237</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>12.83200426387443</v>
+        <v>12.68566812384064</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>8.997942310291151</v>
+        <v>9.018927299088391</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1987906561973969</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.1529277448788912</v>
+        <v>0.1529277448788908</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.1374902698619257</v>
@@ -1197,7 +1197,7 @@
         <v>0.1419304566743229</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.08968912982880649</v>
+        <v>0.08968912982880665</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.09439357309991254</v>
+        <v>0.08747533367938243</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.1289053481279724</v>
+        <v>0.1202358766981124</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.08823613498126889</v>
+        <v>0.07808367087590085</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.08625451836552622</v>
+        <v>0.08385765152018435</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.0304393783619243</v>
+        <v>0.03155352596068029</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.02143752918720213</v>
+        <v>-0.02129831170518744</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1126783508403889</v>
+        <v>0.1137683213260335</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.09749964732170863</v>
+        <v>0.09912297367948739</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.04558975423647736</v>
+        <v>0.04924111440657603</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2378913801587243</v>
+        <v>0.2363068272430455</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2756979719639784</v>
+        <v>0.270936035348671</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.2283399877556792</v>
+        <v>0.2251541232115485</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1887532967565404</v>
+        <v>0.1905034366299374</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1410493761831743</v>
+        <v>0.1394023712163689</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07914191475239714</v>
+        <v>0.07490648611636413</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2019313012872148</v>
+        <v>0.202653102565703</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1921521528929174</v>
+        <v>0.1896066637307141</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.1339830276067636</v>
+        <v>0.1345267437602034</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>7.487620439129494</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-0.9133590067339381</v>
+        <v>-0.9133590067339159</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>14.21838965593739</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>11.32847789507524</v>
+        <v>11.70566578630449</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>8.38234329700496</v>
+        <v>8.866962343295043</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.178021184507164</v>
+        <v>3.739745691699055</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.970823038813172</v>
+        <v>1.917718681247942</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.091876551432763</v>
+        <v>0.9169090998766484</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-6.064449011097083</v>
+        <v>-6.147672532047455</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>9.764101625919952</v>
+        <v>10.00603873480889</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>7.521834122928407</v>
+        <v>7.347800899030342</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.234359103952729</v>
+        <v>1.280254850569932</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>24.72484273732076</v>
+        <v>24.48591039892886</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>21.219558985951</v>
+        <v>22.02850160017455</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>15.60288668474811</v>
+        <v>15.09093609318363</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15.89447970150644</v>
+        <v>15.32912691428473</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>14.32357781948131</v>
+        <v>13.52427790607411</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.912057427565731</v>
+        <v>5.259736130087382</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>18.49284110620227</v>
+        <v>19.16599123766563</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>16.78262067128868</v>
+        <v>16.74351949819911</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>9.400242225004165</v>
+        <v>9.605190627745944</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.1093843600947564</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.01334298276743168</v>
+        <v>-0.01334298276743136</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.2396113632178906</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.2014817626407048</v>
+        <v>0.2123862210630116</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1495063694329203</v>
+        <v>0.1621028090971149</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.05533520417928251</v>
+        <v>0.06738620834211427</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.02808553438187444</v>
+        <v>0.02818159380471184</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.01517814922645318</v>
+        <v>0.01317205513747085</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.08362704759570254</v>
+        <v>-0.08494338965011912</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1577956672238464</v>
+        <v>0.1604131699836066</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1222656078436244</v>
+        <v>0.1189029036331538</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.01973153661488453</v>
+        <v>0.02035332803160983</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5096677090332195</v>
+        <v>0.5020559418201982</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4372473633236853</v>
+        <v>0.4547722506758289</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.3253452384064268</v>
+        <v>0.3089148494390381</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2477928322810727</v>
+        <v>0.2385484627466109</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2259275625316952</v>
+        <v>0.2075646059763879</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.07666873877062126</v>
+        <v>0.08368322927123827</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3263073331394057</v>
+        <v>0.3377379933816287</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.296629138525456</v>
+        <v>0.2949255752191039</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.1671293922653382</v>
+        <v>0.1709764147513734</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>12.01387914664197</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5.851882692807219</v>
+        <v>5.851882692807231</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>5.772795486065119</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>6.517383145644255</v>
+        <v>6.399115801818383</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>9.653050983312625</v>
+        <v>9.531342184259557</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3.321201845319815</v>
+        <v>3.479580994803978</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.680309081243438</v>
+        <v>3.739192739108076</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>3.009869600133176</v>
+        <v>2.980406892009695</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.557661836220551</v>
+        <v>-1.499055984952174</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>5.768574205697567</v>
+        <v>5.733310061884829</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>6.764079105996331</v>
+        <v>6.859810766503878</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.687868468734866</v>
+        <v>1.499416401998878</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>11.28470692559167</v>
+        <v>11.24132944407362</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>14.39035645448347</v>
+        <v>14.12844797345691</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8.192743412050993</v>
+        <v>8.705083158990234</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7.593899905184348</v>
+        <v>7.752034101948133</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>6.982813032761586</v>
+        <v>7.087415200622615</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.430114896546085</v>
+        <v>2.492354596569311</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>9.019540678126793</v>
+        <v>8.805122519946847</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>9.946618440846983</v>
+        <v>9.925359242672306</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>4.800746084069419</v>
+        <v>4.636955862093445</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.1931492443188792</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.09408174546806324</v>
+        <v>0.09408174546806342</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.07559559171233075</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1021435864462865</v>
+        <v>0.1002599649565612</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1535439305363505</v>
+        <v>0.1506010510207129</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.0523327504408973</v>
+        <v>0.05499023824930425</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.04789000487307528</v>
+        <v>0.04878649204086045</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.03838703147178777</v>
+        <v>0.03842608760123033</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.02019691724169497</v>
+        <v>-0.01935969387543155</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08219192585165945</v>
+        <v>0.08153873660575449</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.0965903701104197</v>
+        <v>0.09742639639850706</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.02370754232574323</v>
+        <v>0.02156243704504695</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1852724614767867</v>
+        <v>0.1857488822415148</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2362197876390647</v>
+        <v>0.2312796344022889</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1344154074820929</v>
+        <v>0.142569945977551</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1007985217538299</v>
+        <v>0.1037006060435842</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.09219766330259574</v>
+        <v>0.09499688611986319</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.03247335620385117</v>
+        <v>0.03293464125389336</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1315741986498813</v>
+        <v>0.1291000806172272</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1450655502612542</v>
+        <v>0.1446798593891554</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.06939216363898174</v>
+        <v>0.06761250660977111</v>
       </c>
     </row>
     <row r="34">
